--- a/inst/extdata/tma2/example_metadata.xlsx
+++ b/inst/extdata/tma2/example_metadata.xlsx
@@ -1,41 +1,137 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1B321-E615-F547-9A1C-F7A0DFA02372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>core_id</t>
+  </si>
+  <si>
+    <t>accession_id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>pt1.tma2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pt2.tma2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pt3.tma2</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>pt4.tma2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>pt5.tma2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>pt6.tma2</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>pt7.tma2</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>pt8.tma2</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>pt9.tma2</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>pt10.tma2</t>
+  </si>
+  <si>
+    <t>pt11.tma2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>pt12.tma2</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>pt13.tma2</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>pt14.tma2</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>pt15.tma2</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>pt16.tma2</t>
+  </si>
+  <si>
+    <t>pt17.tma2</t>
+  </si>
+  <si>
+    <t>pt18.tma2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -65,13 +161,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,151 +500,171 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>core_id</v>
-      </c>
-      <c r="B1" t="str">
-        <v>accession_id</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>pt1.tma2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>pt2.tma2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>pt3.tma2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>pt4.tma2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="str">
-        <v>pt5.tma2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="str">
-        <v>pt6.tma2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="str">
-        <v>pt7.tma2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="str">
-        <v>pt8.tma2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="str">
-        <v>pt9.tma2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="str">
-        <v>pt10.tma2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="str">
-        <v>pt11.tma2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="str">
-        <v>pt12.tma2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="str">
-        <v>pt13.tma2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="str">
-        <v>pt14.tma2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
+      <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="str">
-        <v>pt15.tma2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="str">
-        <v>pt16.tma2</v>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B17"/>
+    <ignoredError sqref="A1:B11 A13:B17 B12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/inst/extdata/tma2/example_metadata.xlsx
+++ b/inst/extdata/tma2/example_metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahokada/Documents/TMAtools/inst/extdata/tma2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD1B321-E615-F547-9A1C-F7A0DFA02372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B167837F-A21F-3C40-912B-D8011BDA0A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +505,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -518,7 +519,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -526,7 +527,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -534,7 +535,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -542,7 +543,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -550,7 +551,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -558,7 +559,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -566,7 +567,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
@@ -574,7 +575,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
@@ -582,7 +583,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B10" t="s">
@@ -590,7 +591,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" t="s">
@@ -598,7 +599,7 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -606,7 +607,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B13" t="s">
@@ -614,7 +615,7 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
@@ -622,7 +623,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" t="s">
@@ -630,7 +631,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" t="s">
@@ -638,7 +639,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
@@ -646,7 +647,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -654,7 +655,7 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
